--- a/ergebnisse/phase_1/Vorgehensmodell/Vorgehensmodell Bewertung.xlsx
+++ b/ergebnisse/phase_1/Vorgehensmodell/Vorgehensmodell Bewertung.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeonK\Nextcloud\HSW\4. Semester\IT-Projektmanagement\Fallstudie\itpm_fallstudie\ergebnisse\phase_1\Vorgehensmodell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50CF7227-1D1B-4F1B-A94B-3D22929CCBFC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C22D022-AE57-4B36-A21F-9C5B1E838962}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>Projekttyp</t>
   </si>
@@ -60,13 +60,13 @@
     <t>X/O</t>
   </si>
   <si>
-    <t>agil = 10 | klassisch = 14</t>
+    <t>agil = 11 | klassisch = 13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -322,44 +322,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,11 +674,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -690,19 +690,19 @@
     <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>2</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>3</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>4</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>5</v>
       </c>
     </row>
@@ -710,117 +710,115 @@
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
